--- a/biology/Zoologie/Joseph-Étienne_Giraud/Joseph-Étienne_Giraud.xlsx
+++ b/biology/Zoologie/Joseph-Étienne_Giraud/Joseph-Étienne_Giraud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph-%C3%89tienne_Giraud</t>
+          <t>Joseph-Étienne_Giraud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph-Étienne Giraud, né le 31 janvier 1808 au Sarret, hameau de La Pisse (aujourd’hui Pelvoux) commune de la Vallouise et mort à Paris le 28 mai 1877, est un enseignant, médecin et entomologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph-%C3%89tienne_Giraud</t>
+          <t>Joseph-Étienne_Giraud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Joseph et de Marie Magdeleine Estienne Rossignol, il étudie à Embrun auprès de son oncle l'abbé Jean-Joseph Rossignol qui est alors principal au collège de la ville. À la fin de ses études il enseigne aux enfants du Marquis de Roussy, préfet des Hautes Alpes, dont il devient le précepteur. Sur la proposition de M. Sémion, libraire à Lisbonne, il envisage la création d'une maison de correspondance à Rio de Janeiro, projet mis à mal par les évènements politiques qui surviennent au Brésil. Il gagne alors Paris pour suivre ses études de médecine et soutient sa thèse le 11 mai 1839. Sur les conseils du Docteur Chomel il se rend à Vienne. Il y acquiert une certaine notoriété qui l'amène à exercer dans diverses régions du pays puis de l'Allemagne, de la Hongrie, de l'Ukraine, de la Bessarabie et termine son périple par deux années passées à Rome au chevet d'une jeune princesse de la famille Czartorïski. De retour à Vienne, il fonde la Société zoologico-botanique de Vienne dont il est nommé président. Il y écrit de nombreux mémoires dont plusieurs sont publiés en français ou en allemand.
 Il rentre en France en 1864 où il se lie d'amitié avec Hippolyte Bouteille auteur de l'ornithologie du Dauphiné. Rentré à Paris, il est reçu à la Société entomologique de France dont il devient membre en 1852, vice-président en 1869, président en 1870 et président honoraire en 1874. Il publie de multiples études d'entomologie dans le bulletin de cette société savante. Condamné par une douloureuse affection de la moelle épinière, il ne peut mettre en forme diverses études dont un projet sur la géologie préhistorique de la Vallouise.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph-%C3%89tienne_Giraud</t>
+          <t>Joseph-Étienne_Giraud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thèse soutenue à la Faculté de médecine de Paris le 11 mai 1839
 Des caractères anatomiques du cancer des centres nerveux, etc...
